--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D4D22-EAB6-4463-8D5D-6DED542390BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC3C64-1E7B-4624-A20F-1AA6C86C76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="16995" windowHeight="20985" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
-  <si>
-    <t>Policies</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>Policy_name</t>
   </si>
@@ -96,15 +93,6 @@
 tcp_443</t>
   </si>
   <si>
-    <t>tcp_22</t>
-  </si>
-  <si>
-    <t>udp_161</t>
-  </si>
-  <si>
-    <t>udp_162</t>
-  </si>
-  <si>
     <t>Group_name</t>
   </si>
   <si>
@@ -123,43 +111,240 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>DHCP_servers</t>
+  </si>
+  <si>
+    <t>dhcp_srv1</t>
+  </si>
+  <si>
+    <t>10.99.1.1/32</t>
+  </si>
+  <si>
+    <t>dhcp_srv2</t>
+  </si>
+  <si>
+    <t>dhcp_srv3</t>
+  </si>
+  <si>
+    <t>10.99.1.2/32</t>
+  </si>
+  <si>
+    <t>10.99.1.3/32</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
     <t>Group_address_objects</t>
   </si>
   <si>
-    <t>DHCP_servers</t>
-  </si>
-  <si>
-    <t>dhcp_srv1</t>
-  </si>
-  <si>
-    <t>10.99.1.1/32</t>
-  </si>
-  <si>
-    <t>dhcp_srv2</t>
-  </si>
-  <si>
-    <t>dhcp_srv3</t>
-  </si>
-  <si>
-    <t>10.99.1.2/32</t>
-  </si>
-  <si>
-    <t>10.99.1.3/32</t>
-  </si>
-  <si>
-    <t>keep a line break between different group definition</t>
-  </si>
-  <si>
-    <t>Servers_A</t>
-  </si>
-  <si>
-    <t>servers_A_net</t>
-  </si>
-  <si>
-    <t>10.1.0.0/16</t>
-  </si>
-  <si>
-    <t>ssh</t>
+    <t>Policies</t>
+  </si>
+  <si>
+    <t>DNS_servers</t>
+  </si>
+  <si>
+    <t>CUST-A-dhcp-01</t>
+  </si>
+  <si>
+    <t>CUST-A-dns-01</t>
+  </si>
+  <si>
+    <t>CUST-A-ntp-01</t>
+  </si>
+  <si>
+    <t>CUST-A-snmp-01</t>
+  </si>
+  <si>
+    <t>CUST-A-dhcp-02</t>
+  </si>
+  <si>
+    <t>CUST-A-snmp-02</t>
+  </si>
+  <si>
+    <t>CUST-A-ssh-01</t>
+  </si>
+  <si>
+    <t>CUST-A-app-01</t>
+  </si>
+  <si>
+    <t>tcp_7700
+tcp_7701
+tcp_7702</t>
+  </si>
+  <si>
+    <t>CUST-A-syslog-01</t>
+  </si>
+  <si>
+    <t>syslog</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>CUST-A-deny-01</t>
+  </si>
+  <si>
+    <t>CUST-A-deny-02</t>
+  </si>
+  <si>
+    <t>CUST-A-web-01</t>
+  </si>
+  <si>
+    <t>10.2.2.0/24</t>
+  </si>
+  <si>
+    <t>10.1.1.0/24</t>
+  </si>
+  <si>
+    <t>users_group1</t>
+  </si>
+  <si>
+    <t>users_group2</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>dns_srv1</t>
+  </si>
+  <si>
+    <t>dns_srv2</t>
+  </si>
+  <si>
+    <t>dns_srv3</t>
+  </si>
+  <si>
+    <t>NTP_servers</t>
+  </si>
+  <si>
+    <t>SYSLOG_servers</t>
+  </si>
+  <si>
+    <t>Please preserve below structure</t>
+  </si>
+  <si>
+    <t>ntp_srv1</t>
+  </si>
+  <si>
+    <t>ntp_srv2</t>
+  </si>
+  <si>
+    <t>mgmt_app1</t>
+  </si>
+  <si>
+    <t>10.99.2.0/24</t>
+  </si>
+  <si>
+    <t>Web_apps</t>
+  </si>
+  <si>
+    <t>MGMT_app</t>
+  </si>
+  <si>
+    <t>mgmt_app2</t>
+  </si>
+  <si>
+    <t>10.99.1.100/32</t>
+  </si>
+  <si>
+    <t>10.99.1.101/32</t>
+  </si>
+  <si>
+    <t>web_app1</t>
+  </si>
+  <si>
+    <t>syslog_srv1</t>
+  </si>
+  <si>
+    <t>syslog_srv2</t>
+  </si>
+  <si>
+    <t>10.99.1.11/32</t>
+  </si>
+  <si>
+    <t>10.99.1.12/32</t>
+  </si>
+  <si>
+    <t>10.99.1.13/32</t>
+  </si>
+  <si>
+    <t>10.99.1.21/32</t>
+  </si>
+  <si>
+    <t>10.99.1.22/32</t>
+  </si>
+  <si>
+    <t>10.99.1.31/32</t>
+  </si>
+  <si>
+    <t>10.99.1.32/32</t>
+  </si>
+  <si>
+    <t>10.99.1.41/32</t>
+  </si>
+  <si>
+    <t>10.99.1.42/32</t>
+  </si>
+  <si>
+    <t>Monitoring_app</t>
+  </si>
+  <si>
+    <t>monitoring_srv1</t>
+  </si>
+  <si>
+    <t>monitoring_srv2</t>
+  </si>
+  <si>
+    <t>10.99.1.51/32</t>
+  </si>
+  <si>
+    <t>10.99.1.52/32</t>
+  </si>
+  <si>
+    <t>10.99.4.0/24</t>
+  </si>
+  <si>
+    <t>10.99.5.0/24</t>
+  </si>
+  <si>
+    <t>Other_apps</t>
+  </si>
+  <si>
+    <t>other_app1</t>
+  </si>
+  <si>
+    <t>other_app2</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>SYSLOG</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>SERVICE-DEFAULT-DENY</t>
   </si>
 </sst>
 </file>
@@ -275,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,14 +468,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +484,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,291 +829,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E249E61-1FD5-49AE-A66A-E5E968C6BD8E}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="H39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC3C64-1E7B-4624-A20F-1AA6C86C76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C1DD3-DAE6-4AE9-9D4C-CD073E933AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="16995" windowHeight="20985" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>ssh</t>
   </si>
   <si>
-    <t>Group_address_objects</t>
-  </si>
-  <si>
     <t>Policies</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>SERVICE-DEFAULT-DENY</t>
+  </si>
+  <si>
+    <t>Group_address_objects2</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -882,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,94 +903,94 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -999,55 +999,55 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1056,47 +1056,47 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>16</v>
@@ -1187,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>10</v>
@@ -1202,22 +1202,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>11</v>
@@ -1232,22 +1232,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>12</v>
@@ -1262,25 +1262,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>14</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>15</v>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>31</v>
@@ -1320,22 +1320,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>21</v>
@@ -1350,22 +1350,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>22</v>
@@ -1380,25 +1380,25 @@
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>17</v>
@@ -1410,28 +1410,28 @@
     </row>
     <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>13</v>
@@ -1440,61 +1440,61 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" s="6"/>
     </row>

--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C1DD3-DAE6-4AE9-9D4C-CD073E933AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E91371-ACA4-41EE-8AEA-A8337269ED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
@@ -344,7 +344,7 @@
     <t>SERVICE-DEFAULT-DENY</t>
   </si>
   <si>
-    <t>Group_address_objects2</t>
+    <t>Group_address_objects</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E91371-ACA4-41EE-8AEA-A8337269ED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42B013C-1516-47C1-9E5B-9D7808891FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="100">
   <si>
     <t>Policy_name</t>
   </si>
@@ -294,12 +294,6 @@
   </si>
   <si>
     <t>monitoring_srv2</t>
-  </si>
-  <si>
-    <t>10.99.1.51/32</t>
-  </si>
-  <si>
-    <t>10.99.1.52/32</t>
   </si>
   <si>
     <t>10.99.4.0/24</t>
@@ -829,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E249E61-1FD5-49AE-A66A-E5E968C6BD8E}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1020,147 +1014,186 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>24</v>
+      <c r="F32" t="s">
+        <v>33</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>14</v>
@@ -1172,25 +1205,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>14</v>
@@ -1202,7 +1235,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>93</v>
@@ -1210,17 +1243,17 @@
       <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>14</v>
@@ -1232,7 +1265,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>94</v>
@@ -1240,17 +1273,15 @@
       <c r="C35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>14</v>
@@ -1262,25 +1293,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>44</v>
+      <c r="G36" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>14</v>
@@ -1292,23 +1323,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
       <c r="E37" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>14</v>
@@ -1318,39 +1351,39 @@
       </c>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>14</v>
+      <c r="F38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>97</v>
@@ -1365,22 +1398,22 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>98</v>
@@ -1388,119 +1421,59 @@
       <c r="C40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>65</v>
+      <c r="F40" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>17</v>
+      <c r="H40" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>54</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>89</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>42</v>
+      <c r="H41" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A28:J28"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42B013C-1516-47C1-9E5B-9D7808891FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD13B3-0DC8-42B3-ABA8-1A7D914ACF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
     <col min="10" max="10" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>99</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -865,7 +865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -878,8 +878,9 @@
       <c r="D3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -887,7 +888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -895,7 +896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -907,7 +908,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -916,7 +917,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>57</v>
       </c>
@@ -925,7 +926,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -937,7 +938,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>62</v>
       </c>
@@ -946,7 +947,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -958,7 +959,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -967,7 +968,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -979,7 +980,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -988,7 +989,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">

--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD13B3-0DC8-42B3-ABA8-1A7D914ACF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB20FF-5DD6-429D-83D5-27D3A7AD11AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>Policy_name</t>
   </si>
@@ -826,7 +826,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1274,9 @@
       <c r="C35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
@@ -1392,13 +1394,13 @@
       <c r="C39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G39" s="6" t="s">

--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB20FF-5DD6-429D-83D5-27D3A7AD11AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E36B5B-E5B3-47B4-8197-0DBB3BF4516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>dhcp</t>
   </si>
   <si>
-    <t>icmp_echo</t>
-  </si>
-  <si>
     <t>dns</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Group_address_objects</t>
+  </si>
+  <si>
+    <t>icmp-echo</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -853,139 +853,139 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -994,34 +994,34 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1030,47 +1030,47 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1111,366 +1111,366 @@
         <v>8</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="I38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="I39" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41" s="6"/>
     </row>

--- a/customer_rules/customer_A.xlsx
+++ b/customer_rules/customer_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\IaC-PA-customer-rules\customer_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E36B5B-E5B3-47B4-8197-0DBB3BF4516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD21DF4-C97B-4482-99C9-AD90CACCAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D97A08C-F323-4C40-A431-7054CEAE2DE7}"/>
   </bookViews>
@@ -338,7 +338,7 @@
     <t>Group_address_objects</t>
   </si>
   <si>
-    <t>icmp-echo</t>
+    <t>ping</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
